--- a/spliced/walkingToRunning/2023-03-27_19-50-05/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-50-05/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.8565583720347749</v>
+        <v>0.3769224858049733</v>
       </c>
       <c r="B2" t="n">
-        <v>1.682360221204802</v>
+        <v>-0.2748469442259254</v>
       </c>
       <c r="C2" t="n">
-        <v>1.74579396466501</v>
+        <v>0.004896030350543701</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.239309732830677</v>
+        <v>-0.8251284312733457</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5754852927407828</v>
+        <v>0.638507986693405</v>
       </c>
       <c r="C3" t="n">
-        <v>1.096922339830855</v>
+        <v>1.034206660098391</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1751386040748463</v>
+        <v>-0.384797418221631</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2145548291081436</v>
+        <v>2.191421729508453</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8761335207905833</v>
+        <v>1.820474159769618</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.060679824819472</v>
+        <v>-0.8565583720347749</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4943530759957171</v>
+        <v>1.682360221204802</v>
       </c>
       <c r="C5" t="n">
-        <v>1.891958522744575</v>
+        <v>1.74579396466501</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.450785677701105</v>
+        <v>-0.239309732830677</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1085982450231191</v>
+        <v>0.5754852927407828</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1413266023694169</v>
+        <v>1.096922339830855</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3425711914571603</v>
+        <v>0.1751386040748463</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.118668488800253</v>
+        <v>-0.2145548291081436</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.763528636449275</v>
+        <v>0.8761335207905833</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.661536096485417</v>
+        <v>-1.060679824819472</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.177148738282218</v>
+        <v>0.4943530759957171</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.591206591202183</v>
+        <v>1.891958522744575</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.500267133962643</v>
+        <v>-0.450785677701105</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.098495937851318</v>
+        <v>-0.1085982450231191</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.773556591641946</v>
+        <v>0.1413266023694169</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-2.984340389743152</v>
+        <v>0.3425711914571603</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.351582744756633</v>
+        <v>-2.118668488800253</v>
       </c>
       <c r="C10" t="n">
-        <v>1.246524475547487</v>
+        <v>-2.763528636449275</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-5.330522572629836</v>
+        <v>1.661536096485417</v>
       </c>
       <c r="B11" t="n">
-        <v>1.363846176055872</v>
+        <v>-2.177148738282218</v>
       </c>
       <c r="C11" t="n">
-        <v>4.617774886335326</v>
+        <v>-3.591206591202183</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-4.297088194101645</v>
+        <v>1.500267133962643</v>
       </c>
       <c r="B12" t="n">
-        <v>7.46291283436744</v>
+        <v>-2.098495937851318</v>
       </c>
       <c r="C12" t="n">
-        <v>1.662266135736299</v>
+        <v>-5.773556591641946</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.1566145409663497</v>
+        <v>-2.984340389743152</v>
       </c>
       <c r="B13" t="n">
-        <v>4.606385328884262</v>
+        <v>-1.351582744756633</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.8842834989056194</v>
+        <v>1.246524475547487</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.259676156606183</v>
+        <v>-5.330522572629836</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.144118193455617</v>
+        <v>1.363846176055872</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.28624562092742</v>
+        <v>4.617774886335326</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.500417068015016</v>
+        <v>-4.297088194101645</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.31324529439601</v>
+        <v>7.46291283436744</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.402522266171384</v>
+        <v>1.662266135736299</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.445235498086886</v>
+        <v>-0.1566145409663497</v>
       </c>
       <c r="B16" t="n">
-        <v>2.503525588710229</v>
+        <v>4.606385328884262</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09940216218542508</v>
+        <v>-0.8842834989056194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-8.082223704808689</v>
+        <v>5.259676156606183</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7967113996306803</v>
+        <v>-3.144118193455617</v>
       </c>
       <c r="C17" t="n">
-        <v>8.42470887134173</v>
+        <v>-3.28624562092742</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.0955425516487</v>
+        <v>4.500417068015016</v>
       </c>
       <c r="B18" t="n">
-        <v>-6.407353537588252</v>
+        <v>-0.31324529439601</v>
       </c>
       <c r="C18" t="n">
-        <v>3.211009324377832</v>
+        <v>-3.402522266171384</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.420750588829331</v>
+        <v>-1.445235498086886</v>
       </c>
       <c r="B19" t="n">
-        <v>-8.409929646154669</v>
+        <v>2.503525588710229</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8056608922617063</v>
+        <v>0.09940216218542508</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.383590975182555</v>
+        <v>-8.082223704808689</v>
       </c>
       <c r="B20" t="n">
-        <v>-4.346148073412959</v>
+        <v>0.7967113996306803</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.09347351565632778</v>
+        <v>8.42470887134173</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-1.0955425516487</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-6.407353537588252</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.211009324377832</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3.420750588829331</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-8.409929646154669</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8056608922617063</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5.383590975182555</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-4.346148073412959</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.09347351565632778</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>1.778205815361046</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>-1.402306104331036</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>-0.230236690637843</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-3.16472590750482</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5638766811924731</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.501450692722371</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-2.917193829232435</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.08571250834320598</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.5273152324309833</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.5172856062260307</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4.862342070283832</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.60658347866941</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1.666729755276673</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2906178595197595</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.515296798606113</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2.873153332539526</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-9.141991994266446</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.962461360677373</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.324421677787197</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-4.62868054152566</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.05621947888198298</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-3.513774491813999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.990525447645534</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6.551176387670226</v>
       </c>
     </row>
   </sheetData>
